--- a/2학년_선택과목배정_최종(궁극_파이널).xlsx
+++ b/2학년_선택과목배정_최종(궁극_파이널).xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive - NewSac\2025\시간표편성작업\설악고등학교\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365gwe-my.sharepoint.com/personal/ngryun_o365gwe_net/Documents/2025/2학기_설악고_시간표작업/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{638A7B8A-4C33-40C7-BED6-EDCB497178C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{135073A0-23F6-491F-8936-1E8C16E285F7}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{638A7B8A-4C33-40C7-BED6-EDCB497178C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F4E677D-FC92-4A58-B5D2-E70D756423A9}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2010" windowWidth="24690" windowHeight="18975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생배정결과(2학년)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="168">
   <si>
     <t>순번</t>
   </si>
@@ -505,6 +516,34 @@
   </si>
   <si>
     <t>e2</t>
+  </si>
+  <si>
+    <t>윤아리</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -882,7 +921,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1010,6 +1049,17 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1141,7 +1191,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,6 +1211,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,10 +1575,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9420,35 +9476,56 @@
         <v>156</v>
       </c>
     </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>20525</v>
+      </c>
+      <c r="B128" s="7">
+        <v>2</v>
+      </c>
+      <c r="C128" s="7">
+        <v>5</v>
+      </c>
+      <c r="D128" s="7">
+        <v>27</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="H128" t="s">
+        <v>162</v>
+      </c>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+      <c r="K128" s="8"/>
+      <c r="L128" t="s">
+        <v>164</v>
+      </c>
+      <c r="O128" t="s">
+        <v>165</v>
+      </c>
+      <c r="P128" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q128" s="8"/>
+      <c r="S128" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:T127">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T127">
     <sortCondition ref="B2:B127"/>
     <sortCondition ref="C2:C127"/>
     <sortCondition ref="D2:D127"/>
   </sortState>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="18f1da54-7083-4d9c-bbfb-647d4971956c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010096A85016B378824092719B895C3D51CB" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="f3ecd7a73ec8a6a8b78e2474ae27f55d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18f1da54-7083-4d9c-bbfb-647d4971956c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="782430077250122d865c3f6c500e1e00" ns3:_="">
     <xsd:import namespace="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
@@ -9648,31 +9725,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5366B8-E343-4BDF-95D5-9C0AB94D3CBF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AC96EF-1923-4083-A276-82471225331B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="18f1da54-7083-4d9c-bbfb-647d4971956c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD7F5EA4-BC54-4B5F-B828-4A7410F30B7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9688,4 +9758,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5366B8-E343-4BDF-95D5-9C0AB94D3CBF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88AC96EF-1923-4083-A276-82471225331B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>